--- a/model/Data assignment operating room 2 Large.xlsx
+++ b/model/Data assignment operating room 2 Large.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tip\Documents\GitHub\modellingb\model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3039D9-EDC2-4F83-B72C-ED8F3AF3F59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="12504" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>Number operating rooms</t>
   </si>
@@ -31,11 +37,26 @@
   <si>
     <t>Number days</t>
   </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Overtime per department</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,6 +112,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -138,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +195,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,6 +247,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,17 +475,25 @@
         <v>480</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,255 +502,348 @@
     <col min="3" max="3" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>262</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>324</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>324</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
     </row>
@@ -737,7 +896,7 @@
       <c r="B44" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="J1:K17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J1:K17">
     <sortCondition ref="K1:K17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/Data assignment operating room 2 Large.xlsx
+++ b/model/Data assignment operating room 2 Large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tip\Documents\GitHub\modellingb\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3039D9-EDC2-4F83-B72C-ED8F3AF3F59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D373D7E-E481-46AC-A31A-91D0080ED59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Number operating rooms</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Overtime per department</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +585,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -587,7 +596,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -598,7 +607,7 @@
         <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -609,7 +618,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -620,7 +629,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -631,7 +640,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -642,7 +651,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -653,7 +662,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -664,7 +673,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -675,7 +684,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -686,7 +695,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -697,7 +706,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -708,7 +717,7 @@
         <v>262</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,7 +728,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +739,7 @@
         <v>102</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -741,7 +750,7 @@
         <v>82</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,7 +761,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,7 +783,7 @@
         <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,7 +794,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,7 +805,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -807,7 +816,7 @@
         <v>324</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,7 +827,7 @@
         <v>324</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,7 +838,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,7 +849,7 @@
         <v>125</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
